--- a/author_ber_m.xlsx
+++ b/author_ber_m.xlsx
@@ -1580,8 +1580,8 @@
   <sheetPr/>
   <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1691,6 +1691,9 @@
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
       <c r="H8" t="s">
         <v>11</v>
       </c>
@@ -1702,6 +1705,9 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -1713,6 +1719,9 @@
       <c r="B10">
         <v>1</v>
       </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
       <c r="H10" t="s">
         <v>13</v>
       </c>
@@ -1727,6 +1736,9 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
@@ -1738,6 +1750,9 @@
       <c r="B12">
         <v>1</v>
       </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
       <c r="H12" t="s">
         <v>15</v>
       </c>
@@ -1749,6 +1764,9 @@
       <c r="C13">
         <v>1</v>
       </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
       <c r="H13" t="s">
         <v>16</v>
       </c>
@@ -1760,6 +1778,9 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
       <c r="H14" t="s">
         <v>17</v>
       </c>
@@ -1771,6 +1792,9 @@
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
       <c r="H15" t="s">
         <v>18</v>
       </c>
@@ -1782,6 +1806,9 @@
       <c r="B16">
         <v>1</v>
       </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
       <c r="H16" t="s">
         <v>19</v>
       </c>
@@ -1793,6 +1820,9 @@
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
       <c r="H17" t="s">
         <v>20</v>
       </c>
@@ -1804,6 +1834,9 @@
       <c r="C18">
         <v>1</v>
       </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
       <c r="H18" t="s">
         <v>21</v>
       </c>
@@ -1815,6 +1848,9 @@
       <c r="C19">
         <v>1</v>
       </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
       <c r="H19" t="s">
         <v>22</v>
       </c>
@@ -1826,6 +1862,9 @@
       <c r="C20">
         <v>1</v>
       </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
       <c r="H20" t="s">
         <v>23</v>
       </c>
@@ -1837,6 +1876,9 @@
       <c r="C21">
         <v>1</v>
       </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
       <c r="H21" t="s">
         <v>24</v>
       </c>
@@ -1848,6 +1890,9 @@
       <c r="C22">
         <v>1</v>
       </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
       <c r="H22" t="s">
         <v>25</v>
       </c>
@@ -1859,6 +1904,9 @@
       <c r="B23">
         <v>1</v>
       </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
       <c r="H23" t="s">
         <v>26</v>
       </c>
@@ -1873,6 +1921,9 @@
       <c r="D24">
         <v>1</v>
       </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
       <c r="H24" t="s">
         <v>27</v>
       </c>
@@ -1884,6 +1935,9 @@
       <c r="B25">
         <v>1</v>
       </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
       <c r="H25" t="s">
         <v>28</v>
       </c>
@@ -1895,6 +1949,9 @@
       <c r="C26">
         <v>1</v>
       </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
       <c r="H26" t="s">
         <v>29</v>
       </c>
@@ -1906,6 +1963,9 @@
       <c r="C27">
         <v>1</v>
       </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
       <c r="H27" t="s">
         <v>30</v>
       </c>
@@ -1917,6 +1977,9 @@
       <c r="C28">
         <v>1</v>
       </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
       <c r="H28" t="s">
         <v>31</v>
       </c>
@@ -1928,6 +1991,9 @@
       <c r="C29">
         <v>1</v>
       </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
       <c r="H29" t="s">
         <v>32</v>
       </c>
@@ -1939,6 +2005,9 @@
       <c r="B30">
         <v>1</v>
       </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
       <c r="H30" t="s">
         <v>33</v>
       </c>
@@ -1950,6 +2019,9 @@
       <c r="C31">
         <v>1</v>
       </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
       <c r="H31" t="s">
         <v>34</v>
       </c>
@@ -1961,6 +2033,9 @@
       <c r="B32">
         <v>1</v>
       </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
       <c r="H32" t="s">
         <v>35</v>
       </c>
@@ -1972,6 +2047,9 @@
       <c r="B33">
         <v>1</v>
       </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
       <c r="H33" t="s">
         <v>36</v>
       </c>
@@ -1983,6 +2061,9 @@
       <c r="B34">
         <v>1</v>
       </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
       <c r="H34" t="s">
         <v>37</v>
       </c>
@@ -1994,6 +2075,9 @@
       <c r="B35">
         <v>1</v>
       </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
       <c r="H35" t="s">
         <v>38</v>
       </c>
@@ -2005,6 +2089,9 @@
       <c r="C36">
         <v>1</v>
       </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
       <c r="H36" t="s">
         <v>39</v>
       </c>
@@ -2016,6 +2103,9 @@
       <c r="C37">
         <v>1</v>
       </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
       <c r="H37" t="s">
         <v>40</v>
       </c>
@@ -2027,6 +2117,9 @@
       <c r="C38">
         <v>1</v>
       </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
       <c r="H38" t="s">
         <v>41</v>
       </c>
@@ -2038,6 +2131,9 @@
       <c r="B39">
         <v>1</v>
       </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
       <c r="H39" t="s">
         <v>42</v>
       </c>
@@ -2052,6 +2148,9 @@
       <c r="D40">
         <v>1</v>
       </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
       <c r="H40" t="s">
         <v>43</v>
       </c>
@@ -2063,6 +2162,9 @@
       <c r="A41">
         <v>1</v>
       </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
       <c r="H41" t="s">
         <v>44</v>
       </c>
@@ -2074,6 +2176,9 @@
       <c r="B42">
         <v>1</v>
       </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
       <c r="H42" t="s">
         <v>45</v>
       </c>
@@ -2085,6 +2190,9 @@
       <c r="C43">
         <v>1</v>
       </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
       <c r="H43" t="s">
         <v>46</v>
       </c>
@@ -2096,6 +2204,9 @@
       <c r="B44">
         <v>1</v>
       </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
       <c r="H44" t="s">
         <v>47</v>
       </c>
@@ -2107,6 +2218,9 @@
       <c r="B45">
         <v>1</v>
       </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
       <c r="H45" t="s">
         <v>48</v>
       </c>
@@ -2118,6 +2232,9 @@
       <c r="B46">
         <v>1</v>
       </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
       <c r="H46" t="s">
         <v>49</v>
       </c>
@@ -2129,6 +2246,9 @@
       <c r="C47">
         <v>1</v>
       </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
       <c r="H47" t="s">
         <v>50</v>
       </c>
@@ -2140,6 +2260,9 @@
       <c r="B48">
         <v>1</v>
       </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
       <c r="H48" t="s">
         <v>51</v>
       </c>
@@ -2151,6 +2274,9 @@
       <c r="C49">
         <v>1</v>
       </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
       <c r="H49" t="s">
         <v>52</v>
       </c>
@@ -2162,6 +2288,9 @@
       <c r="B50">
         <v>1</v>
       </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
       <c r="H50" t="s">
         <v>53</v>
       </c>
@@ -2176,6 +2305,9 @@
       <c r="E51">
         <v>1</v>
       </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
       <c r="H51" t="s">
         <v>54</v>
       </c>
@@ -2187,6 +2319,9 @@
       <c r="C52">
         <v>1</v>
       </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
       <c r="H52" t="s">
         <v>55</v>
       </c>
@@ -2198,6 +2333,9 @@
       <c r="B53">
         <v>1</v>
       </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
       <c r="H53" t="s">
         <v>56</v>
       </c>
@@ -2209,6 +2347,9 @@
       <c r="A54">
         <v>1</v>
       </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
       <c r="H54" t="s">
         <v>57</v>
       </c>
@@ -2218,6 +2359,9 @@
     </row>
     <row r="55" spans="3:9">
       <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="G55">
         <v>1</v>
       </c>
       <c r="H55" t="s">

--- a/author_ber_m.xlsx
+++ b/author_ber_m.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="139">
   <si>
     <t>MM</t>
   </si>
@@ -25,13 +25,10 @@
     <t>NA</t>
   </si>
   <si>
-    <t>sent</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>Author Order (pionts)</t>
+    <t>Author Order (pionts, from 1-15)</t>
   </si>
   <si>
     <t>Benson Au</t>
@@ -1578,15 +1575,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I170"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="7" max="7" width="22.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1596,14 +1596,20 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1617,1907 +1623,1120 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:7">
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9">
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="H4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
         <v>7</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>8</v>
       </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
         <v>9</v>
       </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
         <v>10</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9">
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
         <v>12</v>
       </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
         <v>15</v>
       </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9">
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
         <v>16</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="H14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
         <v>17</v>
       </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9">
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
         <v>18</v>
       </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
         <v>19</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9">
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
         <v>20</v>
       </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9">
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
         <v>21</v>
       </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9">
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
         <v>22</v>
       </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9">
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
         <v>23</v>
       </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9">
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
         <v>24</v>
       </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9">
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
         <v>25</v>
       </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
         <v>26</v>
       </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
         <v>27</v>
       </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
         <v>28</v>
       </c>
-      <c r="I25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9">
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
         <v>29</v>
       </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9">
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
         <v>30</v>
       </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9">
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
         <v>31</v>
       </c>
-      <c r="I28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9">
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
         <v>32</v>
       </c>
-      <c r="I29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
         <v>33</v>
       </c>
-      <c r="I30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9">
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
         <v>34</v>
       </c>
-      <c r="I31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="H32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
         <v>35</v>
       </c>
-      <c r="I32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33" t="s">
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
         <v>36</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
         <v>37</v>
       </c>
-      <c r="I34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
         <v>38</v>
       </c>
-      <c r="I35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9">
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
         <v>39</v>
       </c>
-      <c r="I36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9">
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
         <v>40</v>
       </c>
-      <c r="I37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9">
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
         <v>41</v>
       </c>
-      <c r="I38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
         <v>42</v>
       </c>
-      <c r="I39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
         <v>43</v>
       </c>
-      <c r="I40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
         <v>44</v>
       </c>
-      <c r="I41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
+    </row>
+    <row r="43" spans="3:7">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
         <v>45</v>
       </c>
-      <c r="I42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9">
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
         <v>46</v>
       </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
         <v>47</v>
       </c>
-      <c r="I44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45" t="s">
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
         <v>48</v>
       </c>
-      <c r="I45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46" t="s">
+    </row>
+    <row r="47" spans="3:7">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
         <v>49</v>
       </c>
-      <c r="I46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9">
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
         <v>50</v>
       </c>
-      <c r="I47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
+    </row>
+    <row r="49" spans="3:7">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
         <v>51</v>
       </c>
-      <c r="I48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:9">
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
         <v>52</v>
       </c>
-      <c r="I49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50" t="s">
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
         <v>53</v>
       </c>
-      <c r="I50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
+    </row>
+    <row r="52" spans="3:7">
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
         <v>54</v>
       </c>
-      <c r="I51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="3:9">
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52" t="s">
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
         <v>55</v>
       </c>
-      <c r="I52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
         <v>56</v>
       </c>
-      <c r="I53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
         <v>57</v>
       </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="3:9">
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="H55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
         <v>58</v>
       </c>
-      <c r="I55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="H58" t="s">
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
         <v>59</v>
       </c>
-      <c r="I58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
         <v>60</v>
       </c>
-      <c r="I59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
         <v>61</v>
       </c>
-      <c r="I60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="H61" t="s">
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
         <v>62</v>
       </c>
-      <c r="I61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
         <v>63</v>
       </c>
-      <c r="I62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="H63" t="s">
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
         <v>64</v>
       </c>
-      <c r="I63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="H64" t="s">
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
         <v>65</v>
       </c>
-      <c r="I64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="H65" t="s">
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
         <v>66</v>
       </c>
-      <c r="I65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9">
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="H66" t="s">
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
         <v>67</v>
       </c>
-      <c r="I66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="H67" t="s">
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
         <v>68</v>
       </c>
-      <c r="I67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="H68" t="s">
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
         <v>69</v>
       </c>
-      <c r="I68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="H69" t="s">
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
         <v>70</v>
       </c>
-      <c r="I69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="H70" t="s">
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
         <v>71</v>
       </c>
-      <c r="I70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9">
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="H71" t="s">
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
         <v>72</v>
       </c>
-      <c r="I71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9">
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
         <v>73</v>
       </c>
-      <c r="I72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9">
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="H73" t="s">
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
         <v>74</v>
       </c>
-      <c r="I73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9">
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="H74" t="s">
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
         <v>75</v>
       </c>
-      <c r="I74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9">
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="H75" t="s">
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
         <v>76</v>
       </c>
-      <c r="I75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9">
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="H76" t="s">
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
         <v>77</v>
       </c>
-      <c r="I76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="H77" t="s">
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
         <v>78</v>
       </c>
-      <c r="I77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="H78" t="s">
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
         <v>79</v>
       </c>
-      <c r="I78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="H79" t="s">
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
         <v>80</v>
       </c>
-      <c r="I79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="H80" t="s">
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
         <v>81</v>
       </c>
-      <c r="I80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="H81" t="s">
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
         <v>82</v>
       </c>
-      <c r="I81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9">
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="H82" t="s">
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
         <v>83</v>
       </c>
-      <c r="I82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="H83" t="s">
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
         <v>84</v>
       </c>
-      <c r="I83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9">
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="H84" t="s">
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
         <v>85</v>
       </c>
-      <c r="I84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9">
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="H85" t="s">
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
         <v>86</v>
       </c>
-      <c r="I85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9">
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="H86" t="s">
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92"/>
+      <c r="G92" t="s">
         <v>87</v>
       </c>
-      <c r="I86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92">
-        <v>1</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="H92" t="s">
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
         <v>88</v>
       </c>
-      <c r="I92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="H93" t="s">
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
         <v>89</v>
       </c>
-      <c r="I93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9">
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="H94" t="s">
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
         <v>90</v>
       </c>
-      <c r="I94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9">
-      <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="H95" t="s">
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
         <v>91</v>
       </c>
-      <c r="I95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9">
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="H96" t="s">
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
         <v>92</v>
       </c>
-      <c r="I96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97">
-        <v>1</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="H97" t="s">
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
         <v>93</v>
       </c>
-      <c r="I97">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="H100" t="s">
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
         <v>94</v>
       </c>
-      <c r="I100">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101">
-        <v>1</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="H101" t="s">
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="s">
         <v>95</v>
       </c>
-      <c r="I101">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9">
-      <c r="B102">
-        <v>1</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="H102" t="s">
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="s">
         <v>96</v>
       </c>
-      <c r="I102">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9">
-      <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="H103" t="s">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="G112" t="s">
         <v>97</v>
       </c>
-      <c r="I103">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112">
-        <v>1</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-      <c r="E112">
-        <v>1</v>
-      </c>
-      <c r="H112" t="s">
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="G113" t="s">
         <v>98</v>
       </c>
-      <c r="I112">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113">
-        <v>1</v>
-      </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-      <c r="H113" t="s">
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="G114" t="s">
         <v>99</v>
       </c>
-      <c r="I113">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9">
-      <c r="B114">
-        <v>1</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="H114" t="s">
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="G115" t="s">
         <v>100</v>
       </c>
-      <c r="I114">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9">
-      <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="H115" t="s">
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="G116" t="s">
         <v>101</v>
       </c>
-      <c r="I115">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9">
-      <c r="B116">
-        <v>1</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-      <c r="H116" t="s">
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="G117" t="s">
         <v>102</v>
       </c>
-      <c r="I116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117">
-        <v>1</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-      <c r="H117" t="s">
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="G118" t="s">
         <v>103</v>
       </c>
-      <c r="I117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118">
-        <v>1</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="H118" t="s">
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="G119" t="s">
         <v>104</v>
       </c>
-      <c r="I118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9">
-      <c r="B119">
-        <v>1</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="H119" t="s">
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="G120" t="s">
         <v>105</v>
       </c>
-      <c r="I119">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120">
-        <v>1</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="H120" t="s">
+      <c r="H120">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="G121" t="s">
         <v>106</v>
       </c>
-      <c r="I120">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121">
-        <v>1</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-      <c r="H121" t="s">
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
         <v>107</v>
       </c>
-      <c r="I121">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9">
-      <c r="B122">
-        <v>1</v>
-      </c>
-      <c r="H122" t="s">
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="G123" t="s">
         <v>108</v>
       </c>
-      <c r="I122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9">
-      <c r="B123">
-        <v>1</v>
-      </c>
-      <c r="H123" t="s">
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="G124" t="s">
         <v>109</v>
       </c>
-      <c r="I123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9">
-      <c r="B124">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="H124" t="s">
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="G126" t="s">
         <v>110</v>
       </c>
-      <c r="I124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9">
-      <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="E126">
-        <v>1</v>
-      </c>
-      <c r="H126" t="s">
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="G127" t="s">
         <v>111</v>
       </c>
-      <c r="I126">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9">
-      <c r="B127">
-        <v>1</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-      <c r="H127" t="s">
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="G128" t="s">
         <v>112</v>
       </c>
-      <c r="I127">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128">
-        <v>1</v>
-      </c>
-      <c r="E128">
-        <v>1</v>
-      </c>
-      <c r="H128" t="s">
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129"/>
+      <c r="G129" t="s">
         <v>113</v>
       </c>
-      <c r="I128">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129">
-        <v>1</v>
-      </c>
-      <c r="E129">
-        <v>1</v>
-      </c>
-      <c r="H129" t="s">
+      <c r="H129">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="G130" t="s">
         <v>114</v>
       </c>
-      <c r="I129">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130">
-        <v>1</v>
-      </c>
-      <c r="E130">
-        <v>1</v>
-      </c>
-      <c r="H130" t="s">
+    </row>
+    <row r="131" spans="2:7">
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="G131" t="s">
         <v>115</v>
       </c>
-      <c r="I130">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="2:8">
-      <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
-      <c r="H131" t="s">
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="G133" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
-      <c r="A133">
-        <v>1</v>
-      </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
-      <c r="H133" t="s">
+    <row r="134" spans="2:7">
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="G134" t="s">
         <v>117</v>
       </c>
-      <c r="I133">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9">
-      <c r="B134">
-        <v>1</v>
-      </c>
-      <c r="D134">
-        <v>1</v>
-      </c>
-      <c r="H134" t="s">
+    </row>
+    <row r="135" spans="2:7">
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="G135" t="s">
         <v>118</v>
       </c>
-      <c r="I134">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9">
-      <c r="B135">
-        <v>1</v>
-      </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
-      <c r="H135" t="s">
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="G136" t="s">
         <v>119</v>
       </c>
-      <c r="I135">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136">
-        <v>1</v>
-      </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-      <c r="H136" t="s">
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="G137" t="s">
         <v>120</v>
       </c>
-      <c r="I136">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9">
-      <c r="B137">
-        <v>1</v>
-      </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-      <c r="H137" t="s">
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
         <v>121</v>
       </c>
-      <c r="I137">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9">
-      <c r="B138">
-        <v>1</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-      <c r="H138" t="s">
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="G145" t="s">
         <v>122</v>
       </c>
-      <c r="I138">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9">
-      <c r="B145">
-        <v>1</v>
-      </c>
-      <c r="D145">
-        <v>1</v>
-      </c>
-      <c r="H145" t="s">
+    </row>
+    <row r="146" spans="2:7">
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="G146" t="s">
         <v>123</v>
       </c>
-      <c r="I145">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9">
-      <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="D146">
-        <v>1</v>
-      </c>
-      <c r="H146" t="s">
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="G147" t="s">
         <v>124</v>
       </c>
-      <c r="I146">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9">
-      <c r="B147">
-        <v>1</v>
-      </c>
-      <c r="E147">
-        <v>1</v>
-      </c>
-      <c r="H147" t="s">
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="G148" t="s">
         <v>125</v>
       </c>
-      <c r="I147">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9">
-      <c r="B148">
-        <v>1</v>
-      </c>
-      <c r="H148" t="s">
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="G150" t="s">
         <v>126</v>
       </c>
-      <c r="I148">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150">
-        <v>1</v>
-      </c>
-      <c r="D150">
-        <v>1</v>
-      </c>
-      <c r="H150" t="s">
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="G151" t="s">
         <v>127</v>
       </c>
-      <c r="I150">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
-      <c r="A151">
-        <v>1</v>
-      </c>
-      <c r="D151">
-        <v>1</v>
-      </c>
-      <c r="H151" t="s">
+    </row>
+    <row r="152" spans="2:8">
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="G152" t="s">
         <v>128</v>
       </c>
-      <c r="I151">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9">
-      <c r="B152">
-        <v>1</v>
-      </c>
-      <c r="D152">
-        <v>1</v>
-      </c>
-      <c r="E152">
-        <v>1</v>
-      </c>
-      <c r="H152" t="s">
+      <c r="H152">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7">
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="G153" t="s">
         <v>129</v>
       </c>
-      <c r="I152">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9">
-      <c r="B153">
-        <v>1</v>
-      </c>
-      <c r="E153">
-        <v>1</v>
-      </c>
-      <c r="H153" t="s">
+    </row>
+    <row r="160" spans="2:7">
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="G160" t="s">
         <v>130</v>
       </c>
-      <c r="I153">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9">
-      <c r="B160">
-        <v>1</v>
-      </c>
-      <c r="E160">
-        <v>1</v>
-      </c>
-      <c r="H160" t="s">
+    </row>
+    <row r="161" spans="2:7">
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="G161" t="s">
         <v>131</v>
       </c>
-      <c r="I160">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9">
-      <c r="B161">
-        <v>1</v>
-      </c>
-      <c r="E161">
-        <v>1</v>
-      </c>
-      <c r="H161" t="s">
+    </row>
+    <row r="164" spans="2:7">
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="G164" t="s">
         <v>132</v>
       </c>
-      <c r="I161">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9">
-      <c r="B164">
-        <v>1</v>
-      </c>
-      <c r="E164">
-        <v>1</v>
-      </c>
-      <c r="H164" t="s">
+    </row>
+    <row r="165" spans="2:7">
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="G165" t="s">
         <v>133</v>
       </c>
-      <c r="I164">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9">
-      <c r="B165">
-        <v>1</v>
-      </c>
-      <c r="E165">
-        <v>1</v>
-      </c>
-      <c r="H165" t="s">
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="G166" t="s">
         <v>134</v>
       </c>
-      <c r="I165">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
-      <c r="A166">
-        <v>1</v>
-      </c>
-      <c r="D166">
-        <v>1</v>
-      </c>
-      <c r="E166">
-        <v>1</v>
-      </c>
-      <c r="H166" t="s">
+    </row>
+    <row r="167" spans="2:7">
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="G167" t="s">
         <v>135</v>
       </c>
-      <c r="I166">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9">
-      <c r="B167">
-        <v>1</v>
-      </c>
-      <c r="E167">
-        <v>1</v>
-      </c>
-      <c r="H167" t="s">
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="G168" t="s">
         <v>136</v>
       </c>
-      <c r="I167">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
-      <c r="A168">
-        <v>1</v>
-      </c>
-      <c r="D168">
-        <v>1</v>
-      </c>
-      <c r="H168" t="s">
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="G169" t="s">
         <v>137</v>
       </c>
-      <c r="I168">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
-      <c r="A169">
-        <v>1</v>
-      </c>
-      <c r="E169">
-        <v>1</v>
-      </c>
-      <c r="H169" t="s">
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="G170" t="s">
         <v>138</v>
-      </c>
-      <c r="I169">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
-      <c r="A170">
-        <v>1</v>
-      </c>
-      <c r="E170">
-        <v>1</v>
-      </c>
-      <c r="H170" t="s">
-        <v>139</v>
-      </c>
-      <c r="I170">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/author_ber_m.xlsx
+++ b/author_ber_m.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="12255"/>
+    <workbookView windowWidth="22590" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <t>Author</t>
   </si>
   <si>
-    <t>Author Order (pionts, from 1-15)</t>
+    <t>Read Order (pionts)</t>
   </si>
   <si>
     <t>Benson Au</t>
@@ -1577,8 +1577,8 @@
   <sheetPr/>
   <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1614,12 +1614,15 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
+        <f>SUM(A3:A185)</f>
         <v>45</v>
       </c>
       <c r="B2">
-        <v>73</v>
+        <f>SUM(B3:B185)</f>
+        <v>66</v>
       </c>
       <c r="C2">
+        <f>SUM(C3:C185)</f>
         <v>24</v>
       </c>
     </row>
@@ -1635,14 +1638,11 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="G4" t="s">
         <v>6</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1721,14 +1721,11 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
       <c r="G14" t="s">
         <v>16</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="3:7">
@@ -1871,14 +1868,11 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
       <c r="G32" t="s">
         <v>34</v>
       </c>
       <c r="H32">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:7">
@@ -2065,7 +2059,7 @@
         <v>57</v>
       </c>
       <c r="H55">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2452,14 +2446,11 @@
       <c r="A120">
         <v>1</v>
       </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
       <c r="G120" t="s">
         <v>105</v>
       </c>
       <c r="H120">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -2522,15 +2513,11 @@
       <c r="A129">
         <v>1</v>
       </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-      <c r="E129"/>
       <c r="G129" t="s">
         <v>113</v>
       </c>
       <c r="H129">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -2649,14 +2636,11 @@
       <c r="B152">
         <v>1</v>
       </c>
-      <c r="E152">
-        <v>1</v>
-      </c>
       <c r="G152" t="s">
         <v>128</v>
       </c>
       <c r="H152">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="2:7">

--- a/author_ber_m.xlsx
+++ b/author_ber_m.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22590" windowHeight="12255"/>
+    <workbookView windowWidth="16410" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -1577,7 +1577,7 @@
   <sheetPr/>
   <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -2301,7 +2301,6 @@
       <c r="C92">
         <v>1</v>
       </c>
-      <c r="D92"/>
       <c r="G92" t="s">
         <v>87</v>
       </c>
